--- a/assets/Readable-QC-Viewer-Sample.xlsx
+++ b/assets/Readable-QC-Viewer-Sample.xlsx
@@ -254,9 +254,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
-  </numFmts>
   <fonts count="5">
     <font>
       <sz val="10.0"/>
@@ -320,7 +317,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -340,12 +337,6 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -1377,108 +1368,6 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16">
-      <c r="B16" s="7"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="8"/>
-    </row>
-    <row r="17">
-      <c r="B17" s="7"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="8"/>
-    </row>
-    <row r="18">
-      <c r="B18" s="7"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="8"/>
-    </row>
-    <row r="19">
-      <c r="B19" s="7"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="8"/>
-    </row>
-    <row r="20">
-      <c r="B20" s="7"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="8"/>
-    </row>
-    <row r="21">
-      <c r="B21" s="7"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="8"/>
-    </row>
-    <row r="22">
-      <c r="B22" s="7"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="8"/>
-    </row>
-    <row r="23">
-      <c r="B23" s="7"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="8"/>
-    </row>
-    <row r="24">
-      <c r="B24" s="7"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="8"/>
-    </row>
-    <row r="25">
-      <c r="B25" s="7"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="8"/>
-    </row>
-    <row r="26">
-      <c r="B26" s="7"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="8"/>
-    </row>
-    <row r="27">
-      <c r="B27" s="7"/>
-    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
